--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125295.0088720536</v>
+        <v>118370.0852764745</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12348828.71284416</v>
+        <v>12348828.71284415</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5687647.086967525</v>
+        <v>5687647.086967523</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>99.38676347493978</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>99.38676347493978</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -727,7 +727,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>15.03129327438748</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>27.46801669177194</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -800,7 +800,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>139.6853556414405</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>29.06736062834969</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>343.6465684039911</v>
+      </c>
+      <c r="E5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -989,10 +989,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>144.6175193369145</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -1043,7 +1043,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>44.89488190302615</v>
       </c>
     </row>
     <row r="7">
@@ -1062,19 +1062,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>113.6794429932546</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>129.7955322098595</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>27.46801669177194</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>32.01717296675331</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>101.5469122361177</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>136.1769805884549</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>209.7183039501508</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>227.8804795897822</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="12">
@@ -1457,10 +1457,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>105.9202115588047</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>68.42401542253424</v>
       </c>
       <c r="V12" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -1517,7 +1517,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.06736062834969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>123.6621491913813</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>227.8804795897822</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>97.01779017389522</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -1700,13 +1700,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V15" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>122.2618999602331</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>135.6268595587067</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>32.01717296675334</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>18.64994027580487</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>82.85798684944112</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>81.32470272170791</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>209.7183039501508</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>390.1527797502169</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>259.3250421185132</v>
       </c>
       <c r="X20" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Y20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,22 +2162,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>32.01717296675334</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>153.9352535361758</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2298,7 +2298,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>177.8337659106346</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.06736062834969</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>281.1630431011204</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>298.0721989747363</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>2.129193841209227</v>
       </c>
       <c r="C25" t="n">
-        <v>97.65088246589349</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>35.84715600543184</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>390.1527797502169</v>
+        <v>30.41260766643397</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>107.8702810193205</v>
@@ -2651,7 +2651,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>20.54110546596223</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>170.4554760111102</v>
       </c>
       <c r="W27" t="n">
-        <v>106.1331548337414</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>157.8079400398083</v>
@@ -2715,13 +2715,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2730,10 +2730,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>101.0428140355517</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G29" t="n">
-        <v>35.84715600543184</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>39.90853260857541</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>105.9202115588047</v>
@@ -2891,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>160.3775692021838</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>15.76907373316809</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>61.29526474944542</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2964,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>134.6519553698975</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3031,73 +3031,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>379.8866644877579</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>133.9282644538401</v>
+      </c>
+      <c r="T32" t="n">
+        <v>219.9844192126098</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="E32" t="n">
+      <c r="Y32" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="F32" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
         <v>132.6551205385437</v>
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>49.93211445478514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>91.53337611211489</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -3189,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>148.07723763044</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>85.25432609134884</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>89.89083853279834</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>173.8367970624157</v>
       </c>
       <c r="X35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>55.90860326020898</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>105.9202115588047</v>
@@ -3365,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>47.0251437493415</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>303.138642751846</v>
+        <v>39.90853260857541</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3562,7 +3562,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
-        <v>4.026354378271734</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>205.3907568081046</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.0638484442163</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G41" t="n">
-        <v>122.2618999602331</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3793,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>124.2300588940531</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>126.6742602997035</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>89.66257060530309</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672384</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.569312247320619</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>384.3252913328839</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>106.1331548337414</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>180.2319786803651</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>54.68688746169129</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672384</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G2" t="n">
         <v>31.21222238001735</v>
@@ -4333,19 +4333,19 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="L2" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="M2" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="N2" t="n">
         <v>671.6489458004863</v>
       </c>
-      <c r="L2" t="n">
-        <v>1057.900197753201</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1198.893466516011</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1198.893466516011</v>
-      </c>
       <c r="O2" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P2" t="n">
         <v>1198.893466516011</v>
@@ -4360,10 +4360,10 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T2" t="n">
-        <v>1460.220448824161</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U2" t="n">
-        <v>1203.159957083671</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V2" t="n">
         <v>1203.159957083671</v>
@@ -4375,7 +4375,7 @@
         <v>425.3059392994284</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.9527650369019</v>
+        <v>639.2958513022677</v>
       </c>
       <c r="C3" t="n">
-        <v>58.9576937858476</v>
+        <v>505.3007800512135</v>
       </c>
       <c r="D3" t="n">
-        <v>31.21222238001735</v>
+        <v>388.4036222706059</v>
       </c>
       <c r="E3" t="n">
-        <v>31.21222238001735</v>
+        <v>267.9108062629339</v>
       </c>
       <c r="F3" t="n">
-        <v>31.21222238001735</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="G3" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H3" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K3" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L3" t="n">
-        <v>610.2763318953653</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M3" t="n">
-        <v>996.52758384808</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="N3" t="n">
         <v>1174.359867048153</v>
@@ -4436,25 +4436,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T3" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U3" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V3" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W3" t="n">
-        <v>668.9837391697657</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="X3" t="n">
-        <v>492.6577573086585</v>
+        <v>813.880935458021</v>
       </c>
       <c r="Y3" t="n">
-        <v>333.2557976724885</v>
+        <v>654.478975821851</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.6176821887879</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C4" t="n">
-        <v>351.6176821887879</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D4" t="n">
-        <v>192.1230375116979</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E4" t="n">
         <v>31.21222238001735</v>
@@ -4494,10 +4494,10 @@
         <v>199.8470995074659</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4512,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S4" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T4" t="n">
-        <v>1049.39789353288</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U4" t="n">
-        <v>766.5997460790038</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V4" t="n">
-        <v>492.7140010185257</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W4" t="n">
-        <v>351.6176821887879</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="X4" t="n">
-        <v>351.6176821887879</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.6176821887879</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1560.611119000868</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1560.611119000868</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1213.49337313825</v>
+      </c>
+      <c r="E5" t="n">
+        <v>819.3996562188394</v>
+      </c>
+      <c r="F5" t="n">
         <v>425.3059392994284</v>
-      </c>
-      <c r="C5" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="E5" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31.21222238001735</v>
       </c>
       <c r="G5" t="n">
         <v>31.21222238001735</v>
@@ -4570,25 +4570,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K5" t="n">
-        <v>40.13971065786654</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="L5" t="n">
-        <v>40.13971065786654</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="M5" t="n">
-        <v>40.13971065786654</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N5" t="n">
-        <v>426.3909626105813</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O5" t="n">
-        <v>812.642214563296</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P5" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R5" t="n">
         <v>1560.611119000868</v>
@@ -4609,10 +4609,10 @@
         <v>1560.611119000868</v>
       </c>
       <c r="X5" t="n">
-        <v>1213.49337313825</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.3996562188394</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>511.5571472368467</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="C6" t="n">
-        <v>377.5620759857924</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D6" t="n">
-        <v>260.6649182051848</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E6" t="n">
-        <v>140.1721021975128</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F6" t="n">
-        <v>31.21222238001735</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G6" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H6" t="n">
         <v>31.21222238001735</v>
@@ -4652,16 +4652,16 @@
         <v>417.4634743327321</v>
       </c>
       <c r="L6" t="n">
+        <v>417.4634743327321</v>
+      </c>
+      <c r="M6" t="n">
         <v>803.7147262854468</v>
       </c>
-      <c r="M6" t="n">
-        <v>1189.965978238161</v>
-      </c>
       <c r="N6" t="n">
-        <v>1531.051599638238</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.051599638238</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P6" t="n">
         <v>1531.051599638238</v>
@@ -4676,22 +4676,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T6" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U6" t="n">
-        <v>1414.532816640348</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V6" t="n">
-        <v>1200.821289633382</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W6" t="n">
-        <v>987.5881213697105</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X6" t="n">
-        <v>811.2621395086032</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y6" t="n">
-        <v>651.8601798724333</v>
+        <v>555.2994016357376</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.0041316600646</v>
+        <v>687.3421805164801</v>
       </c>
       <c r="C7" t="n">
-        <v>623.9107592217811</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="D7" t="n">
-        <v>464.4161145446911</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E7" t="n">
-        <v>464.4161145446911</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F7" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I7" t="n">
         <v>31.21222238001735</v>
@@ -4749,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U7" t="n">
-        <v>1560.611119000868</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V7" t="n">
-        <v>1560.611119000868</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W7" t="n">
-        <v>1445.783398805661</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="X7" t="n">
-        <v>1207.439536665344</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="Y7" t="n">
-        <v>982.7038380541089</v>
+        <v>875.0418869105245</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>819.3996562188394</v>
+      </c>
+      <c r="C8" t="n">
+        <v>819.3996562188394</v>
+      </c>
+      <c r="D8" t="n">
+        <v>819.3996562188394</v>
+      </c>
+      <c r="E8" t="n">
         <v>425.3059392994284</v>
-      </c>
-      <c r="C8" t="n">
-        <v>425.3059392994284</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.21222238001735</v>
       </c>
       <c r="F8" t="n">
         <v>31.21222238001735</v>
@@ -4807,25 +4807,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K8" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L8" t="n">
-        <v>853.1988602528609</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M8" t="n">
-        <v>1239.450112205576</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N8" t="n">
-        <v>1239.450112205576</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O8" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P8" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R8" t="n">
         <v>1560.611119000868</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>192.9527650369019</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C9" t="n">
-        <v>58.9576937858476</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="D9" t="n">
-        <v>31.21222238001735</v>
+        <v>184.0456171419856</v>
       </c>
       <c r="E9" t="n">
-        <v>31.21222238001735</v>
+        <v>63.55280113431363</v>
       </c>
       <c r="F9" t="n">
         <v>31.21222238001735</v>
@@ -4886,10 +4886,10 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M9" t="n">
         <v>610.2763318953653</v>
@@ -4898,37 +4898,37 @@
         <v>996.52758384808</v>
       </c>
       <c r="O9" t="n">
-        <v>1382.778835800795</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U9" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V9" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W9" t="n">
-        <v>668.9837391697657</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X9" t="n">
-        <v>492.6577573086585</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y9" t="n">
-        <v>333.2557976724885</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.0472404340999</v>
+        <v>301.035252076815</v>
       </c>
       <c r="C10" t="n">
-        <v>629.0472404340999</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="D10" t="n">
-        <v>629.0472404340999</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="E10" t="n">
-        <v>629.0472404340999</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="F10" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G10" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4992,22 +4992,22 @@
         <v>1288.946632556178</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U10" t="n">
-        <v>766.5997460790038</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V10" t="n">
-        <v>629.0472404340999</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W10" t="n">
-        <v>629.0472404340999</v>
+        <v>727.0788206111761</v>
       </c>
       <c r="X10" t="n">
-        <v>629.0472404340999</v>
+        <v>488.7349584708595</v>
       </c>
       <c r="Y10" t="n">
-        <v>629.0472404340999</v>
+        <v>488.7349584708595</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>347.7462876788858</v>
+        <v>637.1426099561463</v>
       </c>
       <c r="C11" t="n">
-        <v>347.7462876788858</v>
+        <v>243.0488930367353</v>
       </c>
       <c r="D11" t="n">
-        <v>347.7462876788858</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E11" t="n">
-        <v>347.7462876788858</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F11" t="n">
-        <v>347.7462876788858</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G11" t="n">
-        <v>347.7462876788858</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H11" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I11" t="n">
         <v>31.21222238001735</v>
@@ -5044,19 +5044,19 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K11" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L11" t="n">
-        <v>401.8573631427234</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M11" t="n">
-        <v>788.1086150954382</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N11" t="n">
-        <v>788.1086150954382</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O11" t="n">
-        <v>1174.359867048153</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P11" t="n">
         <v>1560.611119000868</v>
@@ -5068,25 +5068,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S11" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T11" t="n">
-        <v>1338.404634947726</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U11" t="n">
-        <v>1081.344143207237</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V11" t="n">
-        <v>731.5065885437173</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W11" t="n">
-        <v>347.7462876788858</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X11" t="n">
-        <v>347.7462876788858</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7462876788858</v>
+        <v>1031.236326875557</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>710.0430642665517</v>
+        <v>480.5903684413843</v>
       </c>
       <c r="C12" t="n">
-        <v>576.0479930154975</v>
+        <v>346.59529719033</v>
       </c>
       <c r="D12" t="n">
-        <v>459.1508352348899</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="E12" t="n">
-        <v>338.6580192272179</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="F12" t="n">
         <v>229.6981394097224</v>
@@ -5126,46 +5126,46 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L12" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M12" t="n">
-        <v>610.2763318953653</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N12" t="n">
-        <v>794.9558830015396</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O12" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P12" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q12" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R12" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S12" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U12" t="n">
-        <v>1560.611119000868</v>
+        <v>1224.164078208716</v>
       </c>
       <c r="V12" t="n">
-        <v>1399.307206663087</v>
+        <v>1010.45255120175</v>
       </c>
       <c r="W12" t="n">
-        <v>1186.074038399415</v>
+        <v>797.2193829380783</v>
       </c>
       <c r="X12" t="n">
-        <v>1009.748056538308</v>
+        <v>620.893401076971</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.3460969021384</v>
+        <v>620.893401076971</v>
       </c>
     </row>
     <row r="13">
@@ -5202,13 +5202,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K13" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L13" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M13" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N13" t="n">
         <v>1029.84703862227</v>
@@ -5223,28 +5223,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S13" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T13" t="n">
-        <v>1134.67061185748</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U13" t="n">
-        <v>851.872464403604</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V13" t="n">
-        <v>577.986719343126</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W13" t="n">
-        <v>298.9170548520003</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="X13" t="n">
-        <v>60.5731927116837</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.21222238001735</v>
+        <v>213.6443365274001</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>347.7462876788858</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="C14" t="n">
-        <v>347.7462876788858</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D14" t="n">
-        <v>347.7462876788858</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E14" t="n">
-        <v>347.7462876788858</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F14" t="n">
-        <v>347.7462876788858</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G14" t="n">
-        <v>347.7462876788858</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H14" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I14" t="n">
         <v>31.21222238001735</v>
@@ -5281,16 +5281,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K14" t="n">
-        <v>401.8573631427234</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L14" t="n">
-        <v>401.8573631427234</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M14" t="n">
-        <v>788.1086150954382</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N14" t="n">
-        <v>788.1086150954382</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O14" t="n">
         <v>1174.359867048153</v>
@@ -5311,19 +5311,19 @@
         <v>1338.404634947726</v>
       </c>
       <c r="U14" t="n">
-        <v>1081.344143207237</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V14" t="n">
-        <v>731.5065885437173</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W14" t="n">
-        <v>347.7462876788858</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X14" t="n">
-        <v>347.7462876788858</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7462876788858</v>
+        <v>1338.404634947726</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>710.0430642665517</v>
+        <v>394.6599894562391</v>
       </c>
       <c r="C15" t="n">
-        <v>576.0479930154975</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="D15" t="n">
-        <v>459.1508352348899</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E15" t="n">
-        <v>338.6580192272179</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F15" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G15" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H15" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I15" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J15" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K15" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N15" t="n">
-        <v>758.5490957328082</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O15" t="n">
-        <v>1144.800347685523</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P15" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q15" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R15" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S15" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T15" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U15" t="n">
-        <v>1560.611119000868</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V15" t="n">
-        <v>1399.307206663087</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W15" t="n">
-        <v>1186.074038399415</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X15" t="n">
-        <v>1009.748056538308</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y15" t="n">
-        <v>850.3460969021384</v>
+        <v>492.6577573086585</v>
       </c>
     </row>
     <row r="16">
@@ -5439,13 +5439,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K16" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L16" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M16" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N16" t="n">
         <v>1029.84703862227</v>
@@ -5460,22 +5460,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1475.338400676267</v>
+        <v>1531.250148669201</v>
       </c>
       <c r="S16" t="n">
-        <v>1288.946632556178</v>
+        <v>1344.858380549111</v>
       </c>
       <c r="T16" t="n">
-        <v>1049.39789353288</v>
+        <v>1105.309641525814</v>
       </c>
       <c r="U16" t="n">
-        <v>766.5997460790038</v>
+        <v>822.5114940719377</v>
       </c>
       <c r="V16" t="n">
-        <v>492.7140010185257</v>
+        <v>548.6257490114597</v>
       </c>
       <c r="W16" t="n">
-        <v>213.6443365274001</v>
+        <v>269.556084520334</v>
       </c>
       <c r="X16" t="n">
         <v>31.21222238001735</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>946.0630680013373</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C17" t="n">
-        <v>946.0630680013373</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D17" t="n">
-        <v>946.0630680013373</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E17" t="n">
-        <v>946.0630680013373</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F17" t="n">
-        <v>822.5661993546372</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G17" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H17" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I17" t="n">
         <v>31.21222238001735</v>
@@ -5521,19 +5521,19 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L17" t="n">
-        <v>1057.900197753201</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M17" t="n">
-        <v>1057.900197753201</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N17" t="n">
-        <v>1057.900197753201</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O17" t="n">
         <v>1057.900197753201</v>
       </c>
       <c r="P17" t="n">
-        <v>1444.151449705916</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q17" t="n">
         <v>1520.054473311303</v>
@@ -5551,16 +5551,16 @@
         <v>946.0630680013373</v>
       </c>
       <c r="V17" t="n">
-        <v>946.0630680013373</v>
+        <v>809.0662401642599</v>
       </c>
       <c r="W17" t="n">
-        <v>946.0630680013373</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X17" t="n">
-        <v>946.0630680013373</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y17" t="n">
-        <v>946.0630680013373</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="18">
@@ -5573,10 +5573,10 @@
         <v>300.9427749225932</v>
       </c>
       <c r="C18" t="n">
-        <v>166.9477036715389</v>
+        <v>268.6021961682969</v>
       </c>
       <c r="D18" t="n">
-        <v>50.05054589093136</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E18" t="n">
         <v>31.21222238001735</v>
@@ -5600,13 +5600,13 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L18" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M18" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N18" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O18" t="n">
         <v>996.52758384808</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1043.197592369425</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C19" t="n">
-        <v>872.1042199311419</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D19" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E19" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F19" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G19" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H19" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I19" t="n">
         <v>31.21222238001735</v>
@@ -5700,25 +5700,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S19" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T19" t="n">
-        <v>1560.611119000868</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U19" t="n">
-        <v>1560.611119000868</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.611119000868</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W19" t="n">
-        <v>1281.541454509742</v>
+        <v>577.986719343126</v>
       </c>
       <c r="X19" t="n">
-        <v>1043.197592369425</v>
+        <v>339.6428572028094</v>
       </c>
       <c r="Y19" t="n">
-        <v>1043.197592369425</v>
+        <v>114.907158591574</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>637.1426099561463</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C20" t="n">
-        <v>637.1426099561463</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D20" t="n">
-        <v>637.1426099561463</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E20" t="n">
         <v>425.3059392994284</v>
@@ -5755,49 +5755,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K20" t="n">
-        <v>426.3909626105813</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L20" t="n">
-        <v>426.3909626105813</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M20" t="n">
-        <v>812.642214563296</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N20" t="n">
-        <v>812.642214563296</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O20" t="n">
-        <v>812.642214563296</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P20" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R20" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T20" t="n">
-        <v>1425.330043794968</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U20" t="n">
-        <v>1425.330043794968</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V20" t="n">
-        <v>1425.330043794968</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="W20" t="n">
-        <v>1425.330043794968</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="X20" t="n">
-        <v>1031.236326875557</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y20" t="n">
-        <v>637.1426099561463</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>572.3973151061844</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C21" t="n">
-        <v>438.40224385513</v>
+        <v>268.6021961682969</v>
       </c>
       <c r="D21" t="n">
-        <v>438.40224385513</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E21" t="n">
-        <v>317.909427847458</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F21" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G21" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H21" t="n">
         <v>31.21222238001735</v>
@@ -5834,25 +5834,25 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K21" t="n">
+        <v>224.0250799426506</v>
+      </c>
+      <c r="L21" t="n">
         <v>610.2763318953653</v>
       </c>
-      <c r="L21" t="n">
-        <v>794.9558830015396</v>
-      </c>
       <c r="M21" t="n">
-        <v>794.9558830015396</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N21" t="n">
-        <v>794.9558830015396</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="O21" t="n">
-        <v>794.9558830015396</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="P21" t="n">
-        <v>1181.207134954254</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q21" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R21" t="n">
         <v>1560.611119000868</v>
@@ -5867,16 +5867,16 @@
         <v>1203.918444326094</v>
       </c>
       <c r="V21" t="n">
-        <v>1203.918444326094</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W21" t="n">
-        <v>1048.428289239048</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X21" t="n">
-        <v>872.102307377941</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y21" t="n">
-        <v>712.700347741771</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="22">
@@ -5934,25 +5934,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R22" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S22" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T22" t="n">
-        <v>1134.67061185748</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U22" t="n">
-        <v>851.872464403604</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="V22" t="n">
-        <v>577.986719343126</v>
+        <v>773.3614476226949</v>
       </c>
       <c r="W22" t="n">
-        <v>298.9170548520003</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="X22" t="n">
-        <v>60.5731927116837</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y22" t="n">
         <v>31.21222238001735</v>
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>456.1053011127053</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="C23" t="n">
-        <v>456.1053011127053</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D23" t="n">
-        <v>456.1053011127053</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E23" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N23" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6019,22 +6019,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>1123.868675817052</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W23" t="n">
-        <v>740.1083749522209</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X23" t="n">
-        <v>740.1083749522209</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y23" t="n">
-        <v>740.1083749522209</v>
+        <v>439.0253456848109</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960203</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M24" t="n">
-        <v>508.1659581184963</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N24" t="n">
-        <v>1025.008892784821</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O24" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P24" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1058.642818508509</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6174,25 +6174,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S25" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T25" t="n">
-        <v>1246.342524902554</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U25" t="n">
-        <v>1246.342524902554</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V25" t="n">
-        <v>1246.342524902554</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="W25" t="n">
-        <v>1246.342524902554</v>
+        <v>506.9953472308603</v>
       </c>
       <c r="X25" t="n">
-        <v>1246.342524902554</v>
+        <v>268.6514850905436</v>
       </c>
       <c r="Y25" t="n">
-        <v>1246.342524902554</v>
+        <v>43.91578647930834</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>772.4236851620456</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="C26" t="n">
-        <v>772.4236851620456</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="D26" t="n">
-        <v>772.4236851620456</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="E26" t="n">
-        <v>772.4236851620456</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="F26" t="n">
-        <v>736.2144366717104</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G26" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H26" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I26" t="n">
         <v>31.21222238001735</v>
@@ -6238,40 +6238,40 @@
         <v>1444.151449705916</v>
       </c>
       <c r="N26" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O26" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P26" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q26" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R26" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V26" t="n">
-        <v>1560.611119000868</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="W26" t="n">
-        <v>1560.611119000868</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="X26" t="n">
-        <v>1166.517402081457</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="Y26" t="n">
-        <v>772.4236851620456</v>
+        <v>822.5661993546372</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>710.0430642665517</v>
+        <v>518.8030352945957</v>
       </c>
       <c r="C27" t="n">
-        <v>576.0479930154975</v>
+        <v>384.8079640435415</v>
       </c>
       <c r="D27" t="n">
-        <v>459.1508352348899</v>
+        <v>267.9108062629339</v>
       </c>
       <c r="E27" t="n">
-        <v>338.6580192272179</v>
+        <v>267.9108062629339</v>
       </c>
       <c r="F27" t="n">
-        <v>229.6981394097224</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="G27" t="n">
-        <v>122.7080267240611</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H27" t="n">
         <v>51.96081375977718</v>
@@ -6308,16 +6308,16 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K27" t="n">
-        <v>610.2763318953653</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L27" t="n">
-        <v>794.9558830015396</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="M27" t="n">
-        <v>794.9558830015396</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="N27" t="n">
-        <v>794.9558830015396</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="O27" t="n">
         <v>794.9558830015396</v>
@@ -6332,25 +6332,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S27" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T27" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U27" t="n">
-        <v>1293.279245302185</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V27" t="n">
-        <v>1293.279245302185</v>
+        <v>1031.741195830024</v>
       </c>
       <c r="W27" t="n">
-        <v>1186.074038399415</v>
+        <v>818.5080275663523</v>
       </c>
       <c r="X27" t="n">
-        <v>1009.748056538308</v>
+        <v>818.5080275663523</v>
       </c>
       <c r="Y27" t="n">
-        <v>850.3460969021384</v>
+        <v>659.1060679301823</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.546072681154</v>
+        <v>522.5883840209726</v>
       </c>
       <c r="C28" t="n">
-        <v>949.4527002428704</v>
+        <v>522.5883840209726</v>
       </c>
       <c r="D28" t="n">
-        <v>789.9580555657803</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="E28" t="n">
-        <v>629.0472404340999</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F28" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G28" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H28" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I28" t="n">
         <v>31.21222238001735</v>
@@ -6411,25 +6411,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S28" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T28" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.611119000868</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V28" t="n">
-        <v>1560.611119000868</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.611119000868</v>
+        <v>812.3515389357763</v>
       </c>
       <c r="X28" t="n">
-        <v>1532.981477686434</v>
+        <v>710.288090415017</v>
       </c>
       <c r="Y28" t="n">
-        <v>1308.245779075198</v>
+        <v>710.288090415017</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1560.611119000868</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="C29" t="n">
-        <v>1166.517402081457</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="D29" t="n">
-        <v>1166.517402081457</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="E29" t="n">
-        <v>772.4236851620456</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="F29" t="n">
-        <v>378.3299682426345</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1207197522994</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H29" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I29" t="n">
         <v>31.21222238001735</v>
@@ -6466,49 +6466,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L29" t="n">
-        <v>671.6489458004863</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="M29" t="n">
-        <v>671.6489458004863</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N29" t="n">
-        <v>747.5519694058733</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O29" t="n">
-        <v>1133.803221358588</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P29" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q29" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R29" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S29" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T29" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U29" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V29" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W29" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X29" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="Y29" t="n">
-        <v>1560.611119000868</v>
+        <v>905.7514189017662</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>710.0430642665517</v>
+        <v>580.3345930692965</v>
       </c>
       <c r="C30" t="n">
-        <v>576.0479930154975</v>
+        <v>446.3395218182422</v>
       </c>
       <c r="D30" t="n">
-        <v>459.1508352348899</v>
+        <v>329.4423640376347</v>
       </c>
       <c r="E30" t="n">
-        <v>338.6580192272179</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="F30" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G30" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H30" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I30" t="n">
         <v>31.21222238001735</v>
@@ -6545,19 +6545,19 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L30" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M30" t="n">
-        <v>408.7046310488249</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N30" t="n">
-        <v>794.9558830015396</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O30" t="n">
-        <v>794.9558830015396</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P30" t="n">
         <v>1181.207134954254</v>
@@ -6575,19 +6575,19 @@
         <v>1452.621109115176</v>
       </c>
       <c r="U30" t="n">
-        <v>1452.621109115176</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="V30" t="n">
-        <v>1238.90958210821</v>
+        <v>1093.272753604724</v>
       </c>
       <c r="W30" t="n">
-        <v>1025.676413844539</v>
+        <v>880.0395853410531</v>
       </c>
       <c r="X30" t="n">
-        <v>1009.748056538308</v>
+        <v>880.0395853410531</v>
       </c>
       <c r="Y30" t="n">
-        <v>850.3460969021384</v>
+        <v>720.6376257048831</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>851.872464403604</v>
+        <v>687.3421805164801</v>
       </c>
       <c r="C31" t="n">
-        <v>851.872464403604</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="D31" t="n">
-        <v>789.9580555657803</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E31" t="n">
-        <v>629.0472404340999</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F31" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G31" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H31" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I31" t="n">
         <v>31.21222238001735</v>
@@ -6624,7 +6624,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L31" t="n">
         <v>459.7441997875264</v>
@@ -6645,28 +6645,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R31" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S31" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T31" t="n">
-        <v>1134.67061185748</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U31" t="n">
-        <v>851.872464403604</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="V31" t="n">
-        <v>851.872464403604</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="W31" t="n">
-        <v>851.872464403604</v>
+        <v>1099.77758552176</v>
       </c>
       <c r="X31" t="n">
-        <v>851.872464403604</v>
+        <v>1099.77758552176</v>
       </c>
       <c r="Y31" t="n">
-        <v>851.872464403604</v>
+        <v>875.0418869105245</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1560.611119000868</v>
+        <v>414.9361259030052</v>
       </c>
       <c r="C32" t="n">
-        <v>1213.49337313825</v>
+        <v>414.9361259030052</v>
       </c>
       <c r="D32" t="n">
-        <v>819.3996562188394</v>
+        <v>414.9361259030052</v>
       </c>
       <c r="E32" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F32" t="n">
         <v>31.21222238001735</v>
@@ -6700,25 +6700,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K32" t="n">
-        <v>671.6489458004863</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L32" t="n">
-        <v>1057.900197753201</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M32" t="n">
-        <v>1133.803221358588</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N32" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O32" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P32" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q32" t="n">
         <v>1520.054473311303</v>
@@ -6727,25 +6727,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T32" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U32" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V32" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W32" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X32" t="n">
-        <v>1560.611119000868</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="Y32" t="n">
-        <v>1560.611119000868</v>
+        <v>414.9361259030052</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>668.9837391697657</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C33" t="n">
-        <v>534.9886679187114</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D33" t="n">
-        <v>418.0915101381038</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E33" t="n">
-        <v>297.5986941304318</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F33" t="n">
-        <v>188.6388143129364</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G33" t="n">
-        <v>81.64870162727507</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H33" t="n">
         <v>31.21222238001735</v>
@@ -6785,13 +6785,13 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>610.2763318953653</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="M33" t="n">
-        <v>610.2763318953653</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N33" t="n">
-        <v>758.5490957328082</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O33" t="n">
         <v>1144.800347685523</v>
@@ -6812,19 +6812,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U33" t="n">
-        <v>1095.928434440403</v>
+        <v>1200.821289633382</v>
       </c>
       <c r="V33" t="n">
-        <v>882.216907433437</v>
+        <v>1200.821289633382</v>
       </c>
       <c r="W33" t="n">
-        <v>668.9837391697657</v>
+        <v>987.5881213697105</v>
       </c>
       <c r="X33" t="n">
-        <v>668.9837391697657</v>
+        <v>811.2621395086032</v>
       </c>
       <c r="Y33" t="n">
-        <v>668.9837391697657</v>
+        <v>651.8601798724333</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1099.025667546345</v>
+        <v>117.3277032803697</v>
       </c>
       <c r="C34" t="n">
-        <v>949.4527002428704</v>
+        <v>117.3277032803697</v>
       </c>
       <c r="D34" t="n">
-        <v>789.9580555657803</v>
+        <v>117.3277032803697</v>
       </c>
       <c r="E34" t="n">
-        <v>629.0472404340999</v>
+        <v>117.3277032803697</v>
       </c>
       <c r="F34" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G34" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I34" t="n">
         <v>31.21222238001735</v>
@@ -6888,22 +6888,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T34" t="n">
-        <v>1560.611119000868</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.611119000868</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="V34" t="n">
-        <v>1286.72537394039</v>
+        <v>1047.176634917092</v>
       </c>
       <c r="W34" t="n">
-        <v>1286.72537394039</v>
+        <v>768.106970425966</v>
       </c>
       <c r="X34" t="n">
-        <v>1286.72537394039</v>
+        <v>529.7631082856494</v>
       </c>
       <c r="Y34" t="n">
-        <v>1286.72537394039</v>
+        <v>305.0274096744141</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>342.1207197522994</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="C35" t="n">
-        <v>342.1207197522994</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="D35" t="n">
-        <v>342.1207197522994</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="E35" t="n">
-        <v>342.1207197522994</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="F35" t="n">
-        <v>342.1207197522994</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G35" t="n">
-        <v>342.1207197522994</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H35" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I35" t="n">
         <v>31.21222238001735</v>
@@ -6940,16 +6940,16 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K35" t="n">
-        <v>285.3976938477716</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3976938477716</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="M35" t="n">
-        <v>285.3976938477716</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="N35" t="n">
-        <v>426.3909626105813</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O35" t="n">
         <v>812.642214563296</v>
@@ -6967,22 +6967,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U35" t="n">
-        <v>1469.812292200061</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V35" t="n">
-        <v>1119.974737536542</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="W35" t="n">
-        <v>736.2144366717104</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="X35" t="n">
-        <v>342.1207197522994</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="Y35" t="n">
-        <v>342.1207197522994</v>
+        <v>905.7514189017662</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>572.3973151061844</v>
+        <v>406.6642920438682</v>
       </c>
       <c r="C36" t="n">
-        <v>438.40224385513</v>
+        <v>350.1909554173944</v>
       </c>
       <c r="D36" t="n">
-        <v>438.40224385513</v>
+        <v>350.1909554173944</v>
       </c>
       <c r="E36" t="n">
-        <v>317.909427847458</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="F36" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G36" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H36" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I36" t="n">
         <v>31.21222238001735</v>
@@ -7022,22 +7022,22 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L36" t="n">
-        <v>794.9558830015396</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M36" t="n">
-        <v>794.9558830015396</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N36" t="n">
-        <v>794.9558830015396</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O36" t="n">
-        <v>1181.207134954254</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P36" t="n">
-        <v>1181.207134954254</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q36" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R36" t="n">
         <v>1560.611119000868</v>
@@ -7052,16 +7052,16 @@
         <v>1095.928434440403</v>
       </c>
       <c r="V36" t="n">
-        <v>1048.428289239048</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W36" t="n">
-        <v>1048.428289239048</v>
+        <v>882.6952661767319</v>
       </c>
       <c r="X36" t="n">
-        <v>872.102307377941</v>
+        <v>706.3692843156248</v>
       </c>
       <c r="Y36" t="n">
-        <v>712.700347741771</v>
+        <v>546.9673246794548</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.546072681154</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C37" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D37" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E37" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F37" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G37" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I37" t="n">
         <v>31.21222238001735</v>
@@ -7125,22 +7125,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T37" t="n">
-        <v>1560.611119000868</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U37" t="n">
-        <v>1560.611119000868</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V37" t="n">
-        <v>1560.611119000868</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W37" t="n">
-        <v>1560.611119000868</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X37" t="n">
-        <v>1532.981477686434</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y37" t="n">
-        <v>1308.245779075198</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>731.5065885437173</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="C38" t="n">
-        <v>731.5065885437173</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="D38" t="n">
-        <v>337.4128716243063</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="E38" t="n">
-        <v>337.4128716243063</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="F38" t="n">
-        <v>337.4128716243063</v>
+        <v>157.8756341625153</v>
       </c>
       <c r="G38" t="n">
-        <v>337.4128716243063</v>
+        <v>157.8756341625153</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I38" t="n">
         <v>31.21222238001735</v>
@@ -7177,49 +7177,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K38" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L38" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M38" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N38" t="n">
-        <v>426.3909626105813</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O38" t="n">
-        <v>812.642214563296</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P38" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q38" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R38" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S38" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T38" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U38" t="n">
-        <v>1081.344143207237</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V38" t="n">
-        <v>731.5065885437173</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W38" t="n">
-        <v>731.5065885437173</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X38" t="n">
-        <v>731.5065885437173</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="Y38" t="n">
-        <v>731.5065885437173</v>
+        <v>946.0630680013373</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>406.6642920438682</v>
+        <v>572.3973151061844</v>
       </c>
       <c r="C39" t="n">
-        <v>272.6692207928139</v>
+        <v>438.40224385513</v>
       </c>
       <c r="D39" t="n">
-        <v>155.7720630122063</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E39" t="n">
-        <v>35.27924700453426</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F39" t="n">
-        <v>35.27924700453426</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G39" t="n">
-        <v>35.27924700453426</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H39" t="n">
         <v>31.21222238001735</v>
@@ -7253,19 +7253,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J39" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L39" t="n">
-        <v>803.7147262854468</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.359867048153</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N39" t="n">
-        <v>1174.359867048153</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O39" t="n">
         <v>1174.359867048153</v>
@@ -7286,19 +7286,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U39" t="n">
-        <v>1095.928434440403</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V39" t="n">
-        <v>1095.928434440403</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W39" t="n">
-        <v>882.6952661767319</v>
+        <v>872.102307377941</v>
       </c>
       <c r="X39" t="n">
-        <v>706.3692843156248</v>
+        <v>872.102307377941</v>
       </c>
       <c r="Y39" t="n">
-        <v>546.9673246794548</v>
+        <v>712.700347741771</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.20002678548</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C40" t="n">
-        <v>833.1066543471966</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D40" t="n">
-        <v>673.6120096701065</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E40" t="n">
-        <v>512.7011945384261</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F40" t="n">
-        <v>348.0700686490173</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G40" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H40" t="n">
         <v>31.21222238001735</v>
@@ -7362,22 +7362,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T40" t="n">
-        <v>1560.611119000868</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U40" t="n">
-        <v>1560.611119000868</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V40" t="n">
-        <v>1560.611119000868</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W40" t="n">
-        <v>1560.611119000868</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X40" t="n">
-        <v>1322.267256860551</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y40" t="n">
-        <v>1191.899733179524</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>946.0630680013373</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="C41" t="n">
-        <v>946.0630680013373</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="D41" t="n">
-        <v>946.0630680013373</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="E41" t="n">
-        <v>946.0630680013373</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="F41" t="n">
-        <v>551.9693510819263</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G41" t="n">
-        <v>428.4724824352262</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H41" t="n">
         <v>117.5639850629442</v>
@@ -7411,25 +7411,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J41" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K41" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L41" t="n">
-        <v>361.3007174531585</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M41" t="n">
-        <v>747.5519694058733</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N41" t="n">
-        <v>1133.803221358588</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O41" t="n">
-        <v>1520.054473311303</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P41" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q41" t="n">
         <v>1520.054473311303</v>
@@ -7441,22 +7441,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T41" t="n">
-        <v>1203.123559741827</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="U41" t="n">
-        <v>946.0630680013373</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="V41" t="n">
-        <v>946.0630680013373</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="W41" t="n">
-        <v>946.0630680013373</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="X41" t="n">
-        <v>946.0630680013373</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="Y41" t="n">
-        <v>946.0630680013373</v>
+        <v>1299.845135821177</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J42" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
-        <v>417.4634743327321</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4634743327321</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N42" t="n">
-        <v>788.1086150954382</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O42" t="n">
-        <v>1174.359867048153</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P42" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q42" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R42" t="n">
         <v>1560.611119000868</v>
@@ -7523,13 +7523,13 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U42" t="n">
-        <v>1165.325447019656</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V42" t="n">
-        <v>1165.325447019656</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W42" t="n">
-        <v>1165.325447019656</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="X42" t="n">
         <v>988.9994651585486</v>
@@ -7587,31 +7587,31 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T43" t="n">
-        <v>1321.062379977569</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U43" t="n">
         <v>1038.264232523694</v>
       </c>
       <c r="V43" t="n">
-        <v>764.3784874632156</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W43" t="n">
-        <v>485.30882297209</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X43" t="n">
-        <v>246.9649608317733</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y43" t="n">
         <v>31.21222238001735</v>
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="C44" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="D44" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="E44" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="F44" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G44" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I44" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L44" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M44" t="n">
-        <v>671.6489458004863</v>
+        <v>40.13971065786654</v>
       </c>
       <c r="N44" t="n">
-        <v>853.1988602528609</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O44" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P44" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q44" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R44" t="n">
         <v>1560.611119000868</v>
@@ -7678,22 +7678,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T44" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U44" t="n">
-        <v>1081.344143207237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V44" t="n">
-        <v>731.5065885437173</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W44" t="n">
-        <v>347.7462876788858</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="X44" t="n">
-        <v>342.1207197522994</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546372</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I45" t="n">
         <v>31.21222238001735</v>
@@ -7736,43 +7736,43 @@
         <v>610.2763318953653</v>
       </c>
       <c r="M45" t="n">
-        <v>610.2763318953653</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N45" t="n">
-        <v>610.2763318953653</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O45" t="n">
-        <v>794.9558830015396</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P45" t="n">
-        <v>1181.207134954254</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R45" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U45" t="n">
-        <v>1186.074038399415</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V45" t="n">
-        <v>1186.074038399415</v>
+        <v>1378.558615283327</v>
       </c>
       <c r="W45" t="n">
-        <v>1186.074038399415</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.748056538308</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.3460969021384</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.21222238001735</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C46" t="n">
-        <v>31.21222238001735</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001735</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G46" t="n">
         <v>31.21222238001735</v>
@@ -7806,16 +7806,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280195</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N46" t="n">
         <v>1029.84703862227</v>
@@ -7824,34 +7824,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T46" t="n">
-        <v>1321.062379977569</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U46" t="n">
-        <v>1038.264232523694</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V46" t="n">
-        <v>764.3784874632156</v>
+        <v>1505.371838736533</v>
       </c>
       <c r="W46" t="n">
-        <v>485.30882297209</v>
+        <v>1505.371838736533</v>
       </c>
       <c r="X46" t="n">
-        <v>246.9649608317733</v>
+        <v>1267.027976596216</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.21222238001735</v>
+        <v>1042.292277984981</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>235.7076676518025</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8069,7 +8069,7 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N3" t="n">
-        <v>232.8219622827125</v>
+        <v>427.5824244671905</v>
       </c>
       <c r="O3" t="n">
         <v>447.9042587502169</v>
@@ -8142,7 +8142,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>317.1506174091142</v>
+        <v>317.1506174091145</v>
       </c>
       <c r="M4" t="n">
         <v>348.4508580952379</v>
@@ -8218,16 +8218,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>98.15405460033752</v>
+        <v>463.5254207466576</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N5" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>483.342555376</v>
@@ -8236,10 +8236,10 @@
         <v>483.8021430311011</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,19 +8300,19 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N6" t="n">
-        <v>397.7243241008977</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>402.2824097071476</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8455,28 +8455,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>278.8691500349403</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P9" t="n">
-        <v>204.0301035254733</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,22 +8692,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L11" t="n">
-        <v>213.1214276537053</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O11" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P11" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8774,25 +8774,25 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N12" t="n">
-        <v>239.7383945110979</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O12" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
@@ -8929,7 +8929,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>463.5254207466576</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
         <v>95.48539806284482</v>
@@ -8938,10 +8938,10 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O14" t="n">
-        <v>483.342555376</v>
+        <v>467.5788066992236</v>
       </c>
       <c r="P14" t="n">
         <v>483.8021430311011</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>397.7243241008975</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O15" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>444.4124147530206</v>
@@ -9029,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>208.363831904762</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
@@ -9169,7 +9169,7 @@
         <v>479.289169423434</v>
       </c>
       <c r="L17" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
         <v>93.29022445704545</v>
@@ -9178,13 +9178,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P17" t="n">
-        <v>483.8021430311011</v>
+        <v>236.0668064756412</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.7035252126741</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9248,7 +9248,7 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9257,7 +9257,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>270.6627364864445</v>
@@ -9403,28 +9403,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>231.5538328679743</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M20" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O20" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>242.6595249281969</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>269.5964948773907</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>552.9160747585985</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
@@ -9661,7 +9661,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>531.0094776201754</v>
       </c>
       <c r="M24" t="n">
-        <v>528.6762761514419</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N26" t="n">
-        <v>169.5820115701414</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O26" t="n">
         <v>93.18977562578313</v>
@@ -9898,7 +9898,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,19 +9956,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>242.6595249281969</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>239.7383945110978</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P27" t="n">
         <v>444.4124147530206</v>
@@ -10114,28 +10114,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>213.1214276537053</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N29" t="n">
-        <v>169.5820115701415</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O29" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P29" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
         <v>244.1092848557653</v>
       </c>
       <c r="N30" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
         <v>479.289169423434</v>
@@ -10357,19 +10357,19 @@
         <v>485.6381778130617</v>
       </c>
       <c r="M32" t="n">
-        <v>169.9599452705675</v>
+        <v>102.3078893841658</v>
       </c>
       <c r="N32" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10433,16 +10433,16 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>205.8849923335186</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>202.9638619164196</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O33" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>444.4124147530206</v>
@@ -10588,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>231.5538328679743</v>
       </c>
       <c r="L35" t="n">
         <v>95.48539806284482</v>
@@ -10597,10 +10597,10 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>235.3297339513765</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O35" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
         <v>483.8021430311011</v>
@@ -10670,7 +10670,7 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L36" t="n">
-        <v>242.6595249281969</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,16 +10679,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L38" t="n">
         <v>95.48539806284482</v>
@@ -10834,10 +10834,10 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>235.3297339513765</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>483.342555376</v>
+        <v>276.5735275978786</v>
       </c>
       <c r="P38" t="n">
         <v>483.8021430311011</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>445.9785625348323</v>
@@ -10910,13 +10910,13 @@
         <v>446.2673035610659</v>
       </c>
       <c r="M39" t="n">
-        <v>431.9533148118579</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P39" t="n">
         <v>444.4124147530206</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L41" t="n">
-        <v>428.908120358947</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>236.0668064756412</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>205.8849923335186</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>427.5824244671905</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O42" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>444.4124147530206</v>
@@ -11162,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>102.3078893841658</v>
       </c>
       <c r="N44" t="n">
-        <v>276.2960427287148</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O44" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,13 +11384,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>273.9673852220582</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>244.2964801173478</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>444.4124147530206</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22600,13 +22600,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>120.59765573767</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>246.9524156419443</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>6.484184102520089</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>123.8687090348433</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22710,10 +22710,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>136.5936122047739</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967732</v>
       </c>
     </row>
     <row r="5">
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>56.77272220387891</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22849,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>52.99039544874586</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22877,10 +22877,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -22916,10 +22916,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>50.75978341624895</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>112.9130581367821</v>
       </c>
     </row>
     <row r="7">
@@ -22950,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>162.5995248529597</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>92.69280941526344</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23102,16 +23102,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>75.85310805256715</v>
       </c>
       <c r="G9" t="n">
         <v>105.9202115588047</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>67.83552647778298</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23190,16 +23190,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,19 +23232,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>134.9699070214184</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>190.7009866577193</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23275,10 +23275,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>79.91893280877699</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="12">
@@ -23345,10 +23345,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>126.9532873306292</v>
       </c>
       <c r="V12" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>5.214916324195059</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.4209809967732</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>282.3611955884813</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>79.91893280877699</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>41.88221213533554</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>294.5582079656162</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G17" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>210.7123195581774</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23813,13 +23813,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>100.6379475717904</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>102.9647224806628</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>76.57499550861117</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>200.4785093781215</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>26.66732817563241</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>120.5976557376699</v>
       </c>
       <c r="X20" t="n">
         <v>6.484184102520089</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24050,22 +24050,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
         <v>20.54110546596223</v>
@@ -24107,10 +24107,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>57.16558304485866</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>93.31312169923868</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.4209809967732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>124.9559247667242</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,7 +24214,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24223,10 +24223,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>98.85510734665451</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.6935154888947</v>
       </c>
       <c r="C25" t="n">
-        <v>71.73155624800717</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>380.9729519204175</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G26" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.774526571173908</v>
+        <v>366.5146986549568</v>
       </c>
     </row>
     <row r="27">
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,22 +24572,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>41.11893572578634</v>
       </c>
       <c r="W27" t="n">
-        <v>104.9676817472931</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>134.9176094833618</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
-        <v>368.7938452606643</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24748,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>357.0187737128154</v>
       </c>
     </row>
     <row r="30">
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,16 +24815,16 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>51.19684253471266</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>158.793648309328</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>96.60443348087367</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>141.6270124763169</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,16 +24919,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>62.37677637587143</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>20.04403357805535</v>
+        <v>30.31014884051433</v>
       </c>
       <c r="F32" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -24982,10 +24982,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H33" t="n">
-        <v>20.10762637985597</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
         <v>20.54110546596223</v>
@@ -25052,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>103.8439266410486</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>21.30520108346062</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>77.7304885391658</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25162,7 +25162,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25171,10 +25171,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>164.5990482902866</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>206.0859007937675</v>
       </c>
       <c r="X35" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>76.74651727833475</v>
       </c>
       <c r="D36" t="n">
         <v>115.7281862028015</v>
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25292,10 +25292,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>164.549267987555</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>4.660769646713163</v>
+        <v>267.8908797899838</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25475,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>66.01338645636937</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>20.54110546596223</v>
@@ -25526,16 +25526,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>5.71007977292993</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25602,22 +25602,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.42449318090664</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F41" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G41" t="n">
-        <v>282.379101305863</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>95.75436031855669</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>68.70304245345991</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>121.4382659757314</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.893130557884518</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25876,7 +25876,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>391.0676516054164</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>12.60201498850688</v>
       </c>
     </row>
     <row r="45">
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>89.24414791942208</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>31.34243305653143</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>216.460000148182</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884518</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>485608.4395413784</v>
+        <v>485608.4395413785</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>485608.4395413784</v>
+        <v>485608.4395413783</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>485608.4395413784</v>
+        <v>485608.4395413783</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>485608.4395413785</v>
+        <v>485608.4395413784</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>485608.4395413785</v>
+        <v>485608.4395413784</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>485608.4395413783</v>
+        <v>485608.4395413784</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>581009.5522805892</v>
+        <v>581009.5522805891</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>485608.4395413784</v>
+        <v>485608.4395413783</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>485608.4395413785</v>
+        <v>485608.4395413783</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>485608.4395413785</v>
+        <v>485608.4395413783</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>485608.4395413784</v>
+        <v>485608.4395413783</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111322.3517109387</v>
+        <v>111322.3517109386</v>
       </c>
       <c r="C2" t="n">
-        <v>111322.3517109387</v>
+        <v>111322.3517109386</v>
       </c>
       <c r="D2" t="n">
         <v>111322.3517109386</v>
@@ -26325,7 +26325,7 @@
         <v>111322.3517109387</v>
       </c>
       <c r="F2" t="n">
-        <v>111322.3517109386</v>
+        <v>111322.3517109387</v>
       </c>
       <c r="G2" t="n">
         <v>111322.3517109386</v>
@@ -26334,7 +26334,7 @@
         <v>111322.3517109387</v>
       </c>
       <c r="I2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="J2" t="n">
         <v>111322.3517109387</v>
@@ -26343,16 +26343,16 @@
         <v>111322.3517109386</v>
       </c>
       <c r="L2" t="n">
-        <v>111322.3517109386</v>
+        <v>111322.3517109387</v>
       </c>
       <c r="M2" t="n">
-        <v>111322.3517109386</v>
+        <v>111322.3517109387</v>
       </c>
       <c r="N2" t="n">
         <v>111322.3517109386</v>
       </c>
       <c r="O2" t="n">
-        <v>111322.3517109386</v>
+        <v>111322.3517109387</v>
       </c>
       <c r="P2" t="n">
         <v>111322.3517109386</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>35077.84935241011</v>
+        <v>35077.84935241014</v>
       </c>
       <c r="J3" t="n">
-        <v>67567.46700403656</v>
+        <v>67567.46700403653</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>40657.3542717251</v>
       </c>
       <c r="C4" t="n">
-        <v>40657.3542717251</v>
+        <v>40657.35427172509</v>
       </c>
       <c r="D4" t="n">
-        <v>40657.35427172508</v>
+        <v>40657.35427172509</v>
       </c>
       <c r="E4" t="n">
-        <v>40657.3542717251</v>
+        <v>40657.35427172509</v>
       </c>
       <c r="F4" t="n">
         <v>40657.35427172509</v>
       </c>
       <c r="G4" t="n">
-        <v>40657.3542717251</v>
+        <v>40657.35427172509</v>
       </c>
       <c r="H4" t="n">
         <v>40657.35427172509</v>
@@ -26441,25 +26441,25 @@
         <v>48718.21749193841</v>
       </c>
       <c r="J4" t="n">
-        <v>40657.35427172509</v>
+        <v>40657.35427172508</v>
       </c>
       <c r="K4" t="n">
-        <v>40657.35427172508</v>
+        <v>40657.3542717251</v>
       </c>
       <c r="L4" t="n">
-        <v>40657.35427172509</v>
+        <v>40657.3542717251</v>
       </c>
       <c r="M4" t="n">
         <v>40657.3542717251</v>
       </c>
       <c r="N4" t="n">
-        <v>40657.35427172509</v>
+        <v>40657.3542717251</v>
       </c>
       <c r="O4" t="n">
         <v>40657.3542717251</v>
       </c>
       <c r="P4" t="n">
-        <v>40657.3542717251</v>
+        <v>40657.35427172509</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117433.0615778316</v>
+        <v>-118266.725853078</v>
       </c>
       <c r="C6" t="n">
-        <v>13316.10843040039</v>
+        <v>12482.44415515394</v>
       </c>
       <c r="D6" t="n">
-        <v>13316.10843040037</v>
+        <v>12482.44415515394</v>
       </c>
       <c r="E6" t="n">
-        <v>46943.70843040038</v>
+        <v>46110.04415515394</v>
       </c>
       <c r="F6" t="n">
-        <v>46943.70843040035</v>
+        <v>46110.04415515394</v>
       </c>
       <c r="G6" t="n">
-        <v>46943.70843040034</v>
+        <v>46110.04415515394</v>
       </c>
       <c r="H6" t="n">
-        <v>46943.70843040041</v>
+        <v>46110.04415515394</v>
       </c>
       <c r="I6" t="n">
-        <v>17643.77800742757</v>
+        <v>16966.24914803351</v>
       </c>
       <c r="J6" t="n">
-        <v>-20623.75857363615</v>
+        <v>-21457.42284888258</v>
       </c>
       <c r="K6" t="n">
-        <v>46943.70843040038</v>
+        <v>46110.04415515391</v>
       </c>
       <c r="L6" t="n">
-        <v>46943.70843040038</v>
+        <v>46110.04415515398</v>
       </c>
       <c r="M6" t="n">
-        <v>46943.70843040035</v>
+        <v>46110.04415515394</v>
       </c>
       <c r="N6" t="n">
-        <v>46943.70843040035</v>
+        <v>46110.04415515393</v>
       </c>
       <c r="O6" t="n">
-        <v>46943.70843040034</v>
+        <v>46110.04415515396</v>
       </c>
       <c r="P6" t="n">
-        <v>46943.70843040037</v>
+        <v>46110.04415515391</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
         <v>390.1527797502169</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="J4" t="n">
-        <v>258.2419891304083</v>
+        <v>258.2419891304082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="P2" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M2" t="n">
-        <v>142.4174431947571</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N3" t="n">
-        <v>179.6285688889625</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="O3" t="n">
         <v>390.1527797502169</v>
@@ -34862,7 +34862,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>262.5223235152127</v>
+        <v>262.522323515213</v>
       </c>
       <c r="M4" t="n">
         <v>292.1859155964578</v>
@@ -34877,7 +34877,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.18992909344536</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>9.017664927120396</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>390.1527797502169</v>
@@ -34956,10 +34956,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N6" t="n">
-        <v>344.5309307071477</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>344.5309307071475</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.18992909344536</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L8" t="n">
-        <v>183.3837519720955</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O9" t="n">
+        <v>179.6285688889625</v>
+      </c>
+      <c r="P9" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="P9" t="n">
-        <v>149.7704685226696</v>
-      </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35351,7 +35351,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.18992909344536</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L11" t="n">
-        <v>117.6360295908604</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O11" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="N12" t="n">
-        <v>186.5450011173479</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O12" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K13" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L13" t="n">
         <v>262.5223235152127</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35658,10 +35658,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O14" t="n">
-        <v>390.1527797502169</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="P14" t="n">
         <v>390.1527797502169</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>344.5309307071475</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>390.1527797502169</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K16" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456952</v>
       </c>
       <c r="L16" t="n">
         <v>262.5223235152127</v>
@@ -35889,22 +35889,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>390.1527797502169</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="Q17" t="n">
-        <v>76.66972081352203</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35968,7 +35968,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>216.4031014836408</v>
@@ -36123,28 +36123,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>142.4174431947572</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M20" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L21" t="n">
-        <v>186.5450011173479</v>
-      </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>460.0037840019792</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>474.8949538093263</v>
       </c>
       <c r="M24" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N26" t="n">
-        <v>76.66972081352203</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>186.5450011173478</v>
+      </c>
+      <c r="O27" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L27" t="n">
-        <v>186.5450011173479</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>390.1527797502169</v>
@@ -36834,28 +36834,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>117.6360295908604</v>
+      </c>
+      <c r="M29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>76.66972081352215</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O29" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
-        <v>186.5450011173478</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="N30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>390.1527797502169</v>
@@ -37077,19 +37077,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M32" t="n">
-        <v>76.66972081352203</v>
+        <v>9.017664927120396</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37153,16 +37153,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>149.7704685226696</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>390.1527797502169</v>
@@ -37308,7 +37308,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37317,10 +37317,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>142.4174431947572</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>390.1527797502169</v>
@@ -37390,7 +37390,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L36" t="n">
-        <v>186.5450011173479</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,10 +37554,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>390.1527797502169</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="P38" t="n">
         <v>390.1527797502169</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>390.1527797502169</v>
@@ -37630,13 +37630,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M39" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P39" t="n">
         <v>390.1527797502169</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L41" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>390.1527797502169</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9.017664927120396</v>
+      </c>
+      <c r="N44" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>183.3837519720955</v>
       </c>
       <c r="O44" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>186.5450011173479</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>390.1527797502169</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
